--- a/src/main/java/Windchill/ContentFilesData.xlsx
+++ b/src/main/java/Windchill/ContentFilesData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramisetti.nikhila\WindchillBedrock\src\main\java\Windchill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3002E1-1B20-4CD4-A6A5-D037D9763EA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3F7F9A-F9FC-4A3F-B930-32FCF342EAC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +115,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,14 +145,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +509,7 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H2" t="s">
@@ -522,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -550,7 +561,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{700A3699-09D8-4527-8202-4BEE1B572D8A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>